--- a/medicine/Enfance/Christian_Jolibois/Christian_Jolibois.xlsx
+++ b/medicine/Enfance/Christian_Jolibois/Christian_Jolibois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Jolibois, né le 19 mars 1948 près de Paris, est un comédien et auteur français de livres pour la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À 17 ans, il suit des cours de théâtre et obtient un 1er prix de Comédie au conservatoire de Saint-Maur. En 1969, comédien, il rejoint à Lausanne en Suisse pour quatre années, la Cie d’Alain Knapp, Homme de théâtre qui déclenchera chez lui le goût de l’écriture. De retour à Paris, il écrit et joue ses propres spectacles (Tiens, j’suis ficelé sur les rails, Y’a encore une bombe dans l’berceau du gamin…)
 En 1982, remarqué par Philippe Bouvard il va participer à la formidable aventure du Petit Théâtre émission TV la plus regardée en France durant quatre années. Il fonde ensuite une compagnie de Théâtre jeune public à Paris qu’il animera jusqu’en 1998.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean qui dort et Jean qui lit (illustrations de Christian Heinrich), Pocket, 2006
 Les P'tites Poules, la bête et le Chevalier (illustrations de Christian Heinrich), Pocket, 2005
